--- a/SDP/Filexel/Bapas.xlsx
+++ b/SDP/Filexel/Bapas.xlsx
@@ -1,26 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\TRCH\Automationpython\Filexel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\TRCH\Automationpython\SDP\Filexel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D321C10-B78A-46F3-ACE0-A19BC8078126}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{581093D5-E2E8-44E0-8EC3-8830E812EDD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2655" yWindow="2655" windowWidth="21600" windowHeight="11505" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="KlienAPH" sheetId="1" r:id="rId1"/>
+    <sheet name="Register Pendampingan" sheetId="2" r:id="rId2"/>
+    <sheet name="Register Pembimbingan" sheetId="3" r:id="rId3"/>
+    <sheet name="Register pengawasan" sheetId="4" r:id="rId4"/>
+    <sheet name="Register Litmas" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4079" uniqueCount="2914">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4395" uniqueCount="3042">
   <si>
     <t>Residivis</t>
   </si>
@@ -8762,13 +8766,397 @@
   </si>
   <si>
     <t>`</t>
+  </si>
+  <si>
+    <t>UPTO</t>
+  </si>
+  <si>
+    <t>Namanoinduk</t>
+  </si>
+  <si>
+    <t>JenisPNP</t>
+  </si>
+  <si>
+    <t>Kelusia</t>
+  </si>
+  <si>
+    <t>Petpk</t>
+  </si>
+  <si>
+    <t>suratperintah</t>
+  </si>
+  <si>
+    <t>asalsurat1</t>
+  </si>
+  <si>
+    <t>nosurat1</t>
+  </si>
+  <si>
+    <t>tglsurat1</t>
+  </si>
+  <si>
+    <t>perihalsurat1</t>
+  </si>
+  <si>
+    <t>permintaanpenp</t>
+  </si>
+  <si>
+    <t>nosurat2</t>
+  </si>
+  <si>
+    <t>tglsurat2</t>
+  </si>
+  <si>
+    <t>perihalsurat2</t>
+  </si>
+  <si>
+    <t>Lapas Kelas I Sukamiskin</t>
+  </si>
+  <si>
+    <t>QUEEN PURNAWATi BINTI sugiono</t>
+  </si>
+  <si>
+    <t>MOHAMAD SAMBAS</t>
+  </si>
+  <si>
+    <t>CAHYANI</t>
+  </si>
+  <si>
+    <t>Pendampingan Ditingkat Kepolisian</t>
+  </si>
+  <si>
+    <t>Pendampingan Ditingkat Kejaksaan</t>
+  </si>
+  <si>
+    <t>Pendampingan Ditingkat Pengadilan</t>
+  </si>
+  <si>
+    <t>Anak</t>
+  </si>
+  <si>
+    <t>Dewasa</t>
+  </si>
+  <si>
+    <t>Kiandra Halim</t>
+  </si>
+  <si>
+    <t>nosuratpendampingan1</t>
+  </si>
+  <si>
+    <t>nosuratpendampingan2</t>
+  </si>
+  <si>
+    <t>nosuratpendampingan3</t>
+  </si>
+  <si>
+    <t>nosuratpendampingan4</t>
+  </si>
+  <si>
+    <t>nosuratpendampingan5</t>
+  </si>
+  <si>
+    <t>nosuratpendampingan6</t>
+  </si>
+  <si>
+    <t>nosuratpendampingan7</t>
+  </si>
+  <si>
+    <t>nosuratpendampingan8</t>
+  </si>
+  <si>
+    <t>12/05/2023</t>
+  </si>
+  <si>
+    <t>13/05/2023</t>
+  </si>
+  <si>
+    <t>14/05/2023</t>
+  </si>
+  <si>
+    <t>15/05/2023</t>
+  </si>
+  <si>
+    <t>Prihal surat  pendampingan1</t>
+  </si>
+  <si>
+    <t>Prihal surat  pendampingan2</t>
+  </si>
+  <si>
+    <t>Prihal surat  pendampingan3</t>
+  </si>
+  <si>
+    <t>Prihal surat  pendampingan4</t>
+  </si>
+  <si>
+    <t>NoregNama</t>
+  </si>
+  <si>
+    <t>jenisKlien</t>
+  </si>
+  <si>
+    <t>JenisPembimbingan</t>
+  </si>
+  <si>
+    <t>DasarPembimbingan</t>
+  </si>
+  <si>
+    <t>TglAwalBimbingan</t>
+  </si>
+  <si>
+    <t>TglAkhirBimbignan</t>
+  </si>
+  <si>
+    <t>CariPetugas</t>
+  </si>
+  <si>
+    <t>SuratDasarPembimbingan</t>
+  </si>
+  <si>
+    <t>Asalsurat</t>
+  </si>
+  <si>
+    <t>Nosurat1</t>
+  </si>
+  <si>
+    <t>Perihalsurat1</t>
+  </si>
+  <si>
+    <t>SuratPengantarPenyerahan</t>
+  </si>
+  <si>
+    <t>BeritaAcaraSerahTerimaKlien</t>
+  </si>
+  <si>
+    <t>SuratPerintah</t>
+  </si>
+  <si>
+    <t>Rutan Kelas I Bandung</t>
+  </si>
+  <si>
+    <t>SILVIA NARPATi BINTI sugiono</t>
+  </si>
+  <si>
+    <t>FARAH FUJIATi BIN doniserigar</t>
+  </si>
+  <si>
+    <t>AMI SIREGAr BINTI sugiono</t>
+  </si>
+  <si>
+    <t>Pembimbingan Diversi</t>
+  </si>
+  <si>
+    <t>Pembimbingan Penetapan Bagi Anak Berusia Kurang dari 12 Tahun</t>
+  </si>
+  <si>
+    <t>Pembimbingan Penetapan Tindakan Anak</t>
+  </si>
+  <si>
+    <t>Pembimbingan Pidana dengan Syarat Anak (pidana pembinaan di luar lembaga)</t>
+  </si>
+  <si>
+    <t>Pembimbingan Pidana dengan Syarat Anak (pelayanan masyarakat)</t>
+  </si>
+  <si>
+    <t>Pembimbingan Pidana dengan Syarat Anak (pidana pengawasan)</t>
+  </si>
+  <si>
+    <t>Pembimbingan Pidana Peringatan Anak</t>
+  </si>
+  <si>
+    <t>Pembimbingan Pidana Pelatihan Kerja Anak</t>
+  </si>
+  <si>
+    <t>Pembimbingan Asimilasi Anak</t>
+  </si>
+  <si>
+    <t>Pembimbingan CB Anak</t>
+  </si>
+  <si>
+    <t>Pembimbingan CMB Anak</t>
+  </si>
+  <si>
+    <t>Pembimbingan PB Anak</t>
+  </si>
+  <si>
+    <t>Pembimbingan Tambahan (After Care) Anak</t>
+  </si>
+  <si>
+    <t>Buku Ekspirasi Pembimbingan dan Pengawasan Anak</t>
+  </si>
+  <si>
+    <t>Pidana dengan Syarat</t>
+  </si>
+  <si>
+    <t>Pembimbingan Asimilasi</t>
+  </si>
+  <si>
+    <t>Pembimbingan CB</t>
+  </si>
+  <si>
+    <t>Pembimbingan CMB</t>
+  </si>
+  <si>
+    <t>Pembimbingan PB</t>
+  </si>
+  <si>
+    <t>Pembimbingan Tambahan After Care</t>
+  </si>
+  <si>
+    <t>Pembimbingan dan Pengawasan (buku pembantu register)</t>
+  </si>
+  <si>
+    <t>Awal</t>
+  </si>
+  <si>
+    <t>Lanjutan</t>
+  </si>
+  <si>
+    <t>Akhir</t>
+  </si>
+  <si>
+    <t>Tambahan</t>
+  </si>
+  <si>
+    <t>Putusan Pengadilan</t>
+  </si>
+  <si>
+    <t>Penetapan Pengadilan</t>
+  </si>
+  <si>
+    <t>SK Menkumham</t>
+  </si>
+  <si>
+    <t>SK Kabapas</t>
+  </si>
+  <si>
+    <t>16/05/2023</t>
+  </si>
+  <si>
+    <t>17/05/2023</t>
+  </si>
+  <si>
+    <t>18/05/2023</t>
+  </si>
+  <si>
+    <t>19/05/2023</t>
+  </si>
+  <si>
+    <t>jenispengawasn</t>
+  </si>
+  <si>
+    <t>Lapas Kelas II B Sumedang</t>
+  </si>
+  <si>
+    <t>SARI BIN KIJAN</t>
+  </si>
+  <si>
+    <t>KOKORO BIN KIJAN</t>
+  </si>
+  <si>
+    <t>RIHANa BINTI AOEL</t>
+  </si>
+  <si>
+    <t>Pengawasan Diversi</t>
+  </si>
+  <si>
+    <t>Pengawasan Program Pelayanan Tahanan Anak di LPAS</t>
+  </si>
+  <si>
+    <t>Pengawasan Program Pembinaan Anak di LPKA</t>
+  </si>
+  <si>
+    <t>Pengawasan Asimilasi Anak</t>
+  </si>
+  <si>
+    <t>Pengawasan CB Anak</t>
+  </si>
+  <si>
+    <t>Pengawasan CMB Anak</t>
+  </si>
+  <si>
+    <t>Pengawasan PB Anak</t>
+  </si>
+  <si>
+    <t>Pengawasan Program di RUTAN</t>
+  </si>
+  <si>
+    <t>Pengawasan di LAPAS</t>
+  </si>
+  <si>
+    <t>Pengawasan Program Asimilasi</t>
+  </si>
+  <si>
+    <t>Pengawasan Program CB</t>
+  </si>
+  <si>
+    <t>Pengawasan Program CMB</t>
+  </si>
+  <si>
+    <t>Pengawasan Program PB</t>
+  </si>
+  <si>
+    <t>Pengawasan Program Tambahan (after care)</t>
+  </si>
+  <si>
+    <t>#</t>
+  </si>
+  <si>
+    <t>Litmas Diversi</t>
+  </si>
+  <si>
+    <t>Litmas Proses Peradilan Anak</t>
+  </si>
+  <si>
+    <t>Litmas Program Pelayanan Anak(LPAS)</t>
+  </si>
+  <si>
+    <t>Litmas Program Pembinaan Awal Anak</t>
+  </si>
+  <si>
+    <t>Litmas Program Asimilasi Anak</t>
+  </si>
+  <si>
+    <t>Litmas Program Re-Integrasi (CB) Anak</t>
+  </si>
+  <si>
+    <t>Litmas Program Re-Integrasi (CMB) Anak</t>
+  </si>
+  <si>
+    <t>Litmas Program Re-Integrasi (PB) Anak</t>
+  </si>
+  <si>
+    <t>Litmas Pembimbingan</t>
+  </si>
+  <si>
+    <t>Litmas Proses Peradilan Dewasa</t>
+  </si>
+  <si>
+    <t>Litmas untuk Program Pelayanan di RUTAN</t>
+  </si>
+  <si>
+    <t>Litmas Pembinaan Awal</t>
+  </si>
+  <si>
+    <t>Litmas Program Asimilasi</t>
+  </si>
+  <si>
+    <t>Litmas Program Re-Integrasi (CB)</t>
+  </si>
+  <si>
+    <t>Litmas Program Re-Integrasi (CMB)</t>
+  </si>
+  <si>
+    <t>Litmas Program Re-Integrasi (PB)</t>
+  </si>
+  <si>
+    <t>Jenislitmas</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -8843,6 +9231,11 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF303133"/>
+      <name val="Roboto"/>
     </font>
   </fonts>
   <fills count="3">
@@ -9021,7 +9414,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -9127,6 +9520,8 @@
     <xf numFmtId="3" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -9431,8 +9826,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:CL16396"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
+    <sheetView topLeftCell="BW1" workbookViewId="0">
+      <selection activeCell="BX13" sqref="BX13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -71363,4 +71758,1200 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0B6F864-8996-42BC-BFD1-FDC1401008D6}">
+  <dimension ref="A1:N9"/>
+  <sheetViews>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1:J9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="28" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="26.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14">
+      <c r="A1" t="s">
+        <v>2914</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2915</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2916</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2917</v>
+      </c>
+      <c r="E1" t="s">
+        <v>2918</v>
+      </c>
+      <c r="F1" t="s">
+        <v>2919</v>
+      </c>
+      <c r="G1" t="s">
+        <v>2920</v>
+      </c>
+      <c r="H1" t="s">
+        <v>2921</v>
+      </c>
+      <c r="I1" t="s">
+        <v>2922</v>
+      </c>
+      <c r="J1" t="s">
+        <v>2923</v>
+      </c>
+      <c r="K1" t="s">
+        <v>2924</v>
+      </c>
+      <c r="L1" t="s">
+        <v>2925</v>
+      </c>
+      <c r="M1" t="s">
+        <v>2926</v>
+      </c>
+      <c r="N1" t="s">
+        <v>2927</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
+      <c r="A2" s="11" t="s">
+        <v>2928</v>
+      </c>
+      <c r="B2" s="39" t="s">
+        <v>2929</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>2932</v>
+      </c>
+      <c r="D2" t="s">
+        <v>2935</v>
+      </c>
+      <c r="E2" s="39" t="s">
+        <v>2937</v>
+      </c>
+      <c r="G2" s="11" t="s">
+        <v>1270</v>
+      </c>
+      <c r="H2" t="s">
+        <v>2938</v>
+      </c>
+      <c r="I2" s="40" t="s">
+        <v>2946</v>
+      </c>
+      <c r="J2" t="s">
+        <v>2950</v>
+      </c>
+      <c r="L2" t="s">
+        <v>2938</v>
+      </c>
+      <c r="M2" s="40" t="s">
+        <v>2946</v>
+      </c>
+      <c r="N2" t="s">
+        <v>2950</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
+      <c r="A3" s="11" t="s">
+        <v>2928</v>
+      </c>
+      <c r="B3" s="39" t="s">
+        <v>2930</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>2933</v>
+      </c>
+      <c r="D3" t="s">
+        <v>2936</v>
+      </c>
+      <c r="E3" s="39" t="s">
+        <v>2937</v>
+      </c>
+      <c r="G3" s="11" t="s">
+        <v>1271</v>
+      </c>
+      <c r="H3" t="s">
+        <v>2939</v>
+      </c>
+      <c r="I3" s="40" t="s">
+        <v>2947</v>
+      </c>
+      <c r="J3" t="s">
+        <v>2951</v>
+      </c>
+      <c r="L3" t="s">
+        <v>2939</v>
+      </c>
+      <c r="M3" s="40" t="s">
+        <v>2947</v>
+      </c>
+      <c r="N3" t="s">
+        <v>2951</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
+      <c r="A4" s="11" t="s">
+        <v>2928</v>
+      </c>
+      <c r="B4" s="39" t="s">
+        <v>2931</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>2934</v>
+      </c>
+      <c r="D4" t="s">
+        <v>2935</v>
+      </c>
+      <c r="E4" s="39" t="s">
+        <v>2937</v>
+      </c>
+      <c r="G4" s="11" t="s">
+        <v>1272</v>
+      </c>
+      <c r="H4" t="s">
+        <v>2940</v>
+      </c>
+      <c r="I4" s="40" t="s">
+        <v>2948</v>
+      </c>
+      <c r="J4" t="s">
+        <v>2952</v>
+      </c>
+      <c r="L4" t="s">
+        <v>2940</v>
+      </c>
+      <c r="M4" s="40" t="s">
+        <v>2948</v>
+      </c>
+      <c r="N4" t="s">
+        <v>2952</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
+      <c r="D5" t="s">
+        <v>2936</v>
+      </c>
+      <c r="E5" s="39" t="s">
+        <v>2937</v>
+      </c>
+      <c r="G5" s="11" t="s">
+        <v>1273</v>
+      </c>
+      <c r="H5" t="s">
+        <v>2941</v>
+      </c>
+      <c r="I5" s="40" t="s">
+        <v>2949</v>
+      </c>
+      <c r="J5" t="s">
+        <v>2953</v>
+      </c>
+      <c r="L5" t="s">
+        <v>2941</v>
+      </c>
+      <c r="M5" s="40" t="s">
+        <v>2949</v>
+      </c>
+      <c r="N5" t="s">
+        <v>2953</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
+      <c r="G6" s="11" t="s">
+        <v>1274</v>
+      </c>
+      <c r="H6" t="s">
+        <v>2942</v>
+      </c>
+      <c r="L6" t="s">
+        <v>2942</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
+      <c r="G7" s="11" t="s">
+        <v>1275</v>
+      </c>
+      <c r="H7" t="s">
+        <v>2943</v>
+      </c>
+      <c r="L7" t="s">
+        <v>2943</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
+      <c r="G8" s="11" t="s">
+        <v>1276</v>
+      </c>
+      <c r="H8" t="s">
+        <v>2944</v>
+      </c>
+      <c r="L8" t="s">
+        <v>2944</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
+      <c r="G9" s="11" t="s">
+        <v>1277</v>
+      </c>
+      <c r="H9" t="s">
+        <v>2945</v>
+      </c>
+      <c r="L9" t="s">
+        <v>2945</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0228EBD-55B8-4C37-9799-26F132B68AA2}">
+  <dimension ref="A1:P22"/>
+  <sheetViews>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="J1" sqref="J1:M5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="27.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="67.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="24.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="28" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="26.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="25.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="27.42578125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16">
+      <c r="A1" t="s">
+        <v>2914</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2954</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2955</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2956</v>
+      </c>
+      <c r="E1" t="s">
+        <v>2957</v>
+      </c>
+      <c r="F1" t="s">
+        <v>2958</v>
+      </c>
+      <c r="G1" t="s">
+        <v>2959</v>
+      </c>
+      <c r="H1" t="s">
+        <v>2960</v>
+      </c>
+      <c r="I1" t="s">
+        <v>2961</v>
+      </c>
+      <c r="J1" t="s">
+        <v>2962</v>
+      </c>
+      <c r="K1" t="s">
+        <v>2963</v>
+      </c>
+      <c r="L1" t="s">
+        <v>2963</v>
+      </c>
+      <c r="M1" t="s">
+        <v>2964</v>
+      </c>
+      <c r="N1" t="s">
+        <v>2965</v>
+      </c>
+      <c r="O1" t="s">
+        <v>2966</v>
+      </c>
+      <c r="P1" t="s">
+        <v>2967</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16">
+      <c r="A2" s="11" t="s">
+        <v>2928</v>
+      </c>
+      <c r="B2" s="39" t="s">
+        <v>2929</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>2972</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>2993</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>2997</v>
+      </c>
+      <c r="F2" s="40" t="s">
+        <v>2946</v>
+      </c>
+      <c r="G2" s="40" t="s">
+        <v>3001</v>
+      </c>
+      <c r="H2" s="39" t="s">
+        <v>2937</v>
+      </c>
+      <c r="J2" s="11" t="s">
+        <v>1270</v>
+      </c>
+      <c r="K2" t="s">
+        <v>2938</v>
+      </c>
+      <c r="L2" s="40" t="s">
+        <v>2946</v>
+      </c>
+      <c r="M2" t="s">
+        <v>2950</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16">
+      <c r="A3" s="11" t="s">
+        <v>2928</v>
+      </c>
+      <c r="B3" s="39" t="s">
+        <v>2930</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>2973</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>2994</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>2998</v>
+      </c>
+      <c r="F3" s="40" t="s">
+        <v>2947</v>
+      </c>
+      <c r="G3" s="40" t="s">
+        <v>3002</v>
+      </c>
+      <c r="H3" s="39" t="s">
+        <v>2937</v>
+      </c>
+      <c r="J3" s="11" t="s">
+        <v>1271</v>
+      </c>
+      <c r="K3" t="s">
+        <v>2939</v>
+      </c>
+      <c r="L3" s="40" t="s">
+        <v>2947</v>
+      </c>
+      <c r="M3" t="s">
+        <v>2951</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16">
+      <c r="A4" s="11" t="s">
+        <v>2928</v>
+      </c>
+      <c r="B4" s="39" t="s">
+        <v>2931</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>2974</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>2995</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>2999</v>
+      </c>
+      <c r="F4" s="40" t="s">
+        <v>2948</v>
+      </c>
+      <c r="G4" s="40" t="s">
+        <v>3003</v>
+      </c>
+      <c r="H4" s="39" t="s">
+        <v>2937</v>
+      </c>
+      <c r="J4" s="11" t="s">
+        <v>1272</v>
+      </c>
+      <c r="K4" t="s">
+        <v>2940</v>
+      </c>
+      <c r="L4" s="40" t="s">
+        <v>2948</v>
+      </c>
+      <c r="M4" t="s">
+        <v>2952</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16">
+      <c r="A5" s="12" t="s">
+        <v>2968</v>
+      </c>
+      <c r="B5" s="39" t="s">
+        <v>2969</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>2975</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>2996</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>3000</v>
+      </c>
+      <c r="F5" s="40" t="s">
+        <v>2949</v>
+      </c>
+      <c r="G5" s="40" t="s">
+        <v>3004</v>
+      </c>
+      <c r="H5" s="39" t="s">
+        <v>2937</v>
+      </c>
+      <c r="J5" s="11" t="s">
+        <v>1273</v>
+      </c>
+      <c r="K5" t="s">
+        <v>2941</v>
+      </c>
+      <c r="L5" s="40" t="s">
+        <v>2949</v>
+      </c>
+      <c r="M5" t="s">
+        <v>2953</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16">
+      <c r="A6" s="12" t="s">
+        <v>2968</v>
+      </c>
+      <c r="B6" s="39" t="s">
+        <v>2970</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>2976</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16">
+      <c r="A7" s="12" t="s">
+        <v>2968</v>
+      </c>
+      <c r="B7" s="39" t="s">
+        <v>2971</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>2977</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16">
+      <c r="C8" s="11" t="s">
+        <v>2978</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16">
+      <c r="C9" s="11" t="s">
+        <v>2979</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16">
+      <c r="C10" s="11" t="s">
+        <v>2980</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16">
+      <c r="C11" s="11" t="s">
+        <v>2981</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16">
+      <c r="C12" s="11" t="s">
+        <v>2982</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16">
+      <c r="C13" s="11" t="s">
+        <v>2983</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16">
+      <c r="C14" s="11" t="s">
+        <v>2984</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16">
+      <c r="C15" s="11" t="s">
+        <v>2985</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16">
+      <c r="C16" s="11" t="s">
+        <v>2986</v>
+      </c>
+    </row>
+    <row r="17" spans="3:3">
+      <c r="C17" s="11" t="s">
+        <v>2987</v>
+      </c>
+    </row>
+    <row r="18" spans="3:3">
+      <c r="C18" s="11" t="s">
+        <v>2988</v>
+      </c>
+    </row>
+    <row r="19" spans="3:3">
+      <c r="C19" s="11" t="s">
+        <v>2989</v>
+      </c>
+    </row>
+    <row r="20" spans="3:3">
+      <c r="C20" s="11" t="s">
+        <v>2990</v>
+      </c>
+    </row>
+    <row r="21" spans="3:3">
+      <c r="C21" s="11" t="s">
+        <v>2991</v>
+      </c>
+    </row>
+    <row r="22" spans="3:3">
+      <c r="C22" s="11" t="s">
+        <v>2992</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BC4CEEA-1493-40D4-8B35-F1BB65148293}">
+  <dimension ref="A1:I15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:B10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="48" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="28" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="26.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="A1" t="s">
+        <v>2914</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2954</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3005</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2960</v>
+      </c>
+      <c r="E1" t="s">
+        <v>2961</v>
+      </c>
+      <c r="F1" t="s">
+        <v>2962</v>
+      </c>
+      <c r="G1" t="s">
+        <v>2963</v>
+      </c>
+      <c r="H1" t="s">
+        <v>2922</v>
+      </c>
+      <c r="I1" t="s">
+        <v>2964</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="11" t="s">
+        <v>2928</v>
+      </c>
+      <c r="B2" s="39" t="s">
+        <v>2929</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>3010</v>
+      </c>
+      <c r="D2" s="39" t="s">
+        <v>2937</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>1270</v>
+      </c>
+      <c r="G2" t="s">
+        <v>2938</v>
+      </c>
+      <c r="H2" s="40" t="s">
+        <v>2946</v>
+      </c>
+      <c r="I2" t="s">
+        <v>2950</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="11" t="s">
+        <v>2928</v>
+      </c>
+      <c r="B3" s="39" t="s">
+        <v>2930</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>3011</v>
+      </c>
+      <c r="D3" s="39" t="s">
+        <v>2937</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>1271</v>
+      </c>
+      <c r="G3" t="s">
+        <v>2939</v>
+      </c>
+      <c r="H3" s="40" t="s">
+        <v>2947</v>
+      </c>
+      <c r="I3" t="s">
+        <v>2951</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="11" t="s">
+        <v>2928</v>
+      </c>
+      <c r="B4" s="39" t="s">
+        <v>2931</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>3012</v>
+      </c>
+      <c r="D4" s="39" t="s">
+        <v>2937</v>
+      </c>
+      <c r="F4" s="11" t="s">
+        <v>1272</v>
+      </c>
+      <c r="G4" t="s">
+        <v>2940</v>
+      </c>
+      <c r="H4" s="40" t="s">
+        <v>2948</v>
+      </c>
+      <c r="I4" t="s">
+        <v>2952</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="12" t="s">
+        <v>2968</v>
+      </c>
+      <c r="B5" s="39" t="s">
+        <v>2969</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>3013</v>
+      </c>
+      <c r="D5" s="39" t="s">
+        <v>2937</v>
+      </c>
+      <c r="F5" s="11" t="s">
+        <v>1273</v>
+      </c>
+      <c r="G5" t="s">
+        <v>2941</v>
+      </c>
+      <c r="H5" s="40" t="s">
+        <v>2949</v>
+      </c>
+      <c r="I5" t="s">
+        <v>2953</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="12" t="s">
+        <v>2968</v>
+      </c>
+      <c r="B6" s="39" t="s">
+        <v>2970</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>3014</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="12" t="s">
+        <v>2968</v>
+      </c>
+      <c r="B7" s="39" t="s">
+        <v>2971</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>3015</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="11" t="s">
+        <v>3006</v>
+      </c>
+      <c r="B8" s="39" t="s">
+        <v>3007</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>3016</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="11" t="s">
+        <v>3006</v>
+      </c>
+      <c r="B9" s="39" t="s">
+        <v>3008</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>3017</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="11" t="s">
+        <v>3006</v>
+      </c>
+      <c r="B10" s="39" t="s">
+        <v>3009</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>3018</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="C11" s="11" t="s">
+        <v>3019</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="C12" s="11" t="s">
+        <v>3020</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="C13" s="11" t="s">
+        <v>3021</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="C14" s="11" t="s">
+        <v>3022</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="C15" s="11" t="s">
+        <v>3023</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26C3D5C4-3A84-4C62-A249-743CB01EFB38}">
+  <dimension ref="A1:N17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="O10" sqref="O10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="37.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="28" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="26.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14">
+      <c r="A1" t="s">
+        <v>2914</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2915</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3041</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3024</v>
+      </c>
+      <c r="E1" t="s">
+        <v>2918</v>
+      </c>
+      <c r="F1" t="s">
+        <v>2919</v>
+      </c>
+      <c r="G1" t="s">
+        <v>2920</v>
+      </c>
+      <c r="H1" t="s">
+        <v>2921</v>
+      </c>
+      <c r="I1" t="s">
+        <v>2922</v>
+      </c>
+      <c r="J1" t="s">
+        <v>2923</v>
+      </c>
+      <c r="K1" t="s">
+        <v>2924</v>
+      </c>
+      <c r="L1" t="s">
+        <v>2925</v>
+      </c>
+      <c r="M1" t="s">
+        <v>2926</v>
+      </c>
+      <c r="N1" t="s">
+        <v>2927</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
+      <c r="A2" s="11" t="s">
+        <v>2928</v>
+      </c>
+      <c r="B2" s="39" t="s">
+        <v>2929</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>3025</v>
+      </c>
+      <c r="E2" s="39" t="s">
+        <v>2937</v>
+      </c>
+      <c r="G2" t="s">
+        <v>2920</v>
+      </c>
+      <c r="H2" t="s">
+        <v>2921</v>
+      </c>
+      <c r="I2" t="s">
+        <v>2922</v>
+      </c>
+      <c r="J2" t="s">
+        <v>2923</v>
+      </c>
+      <c r="L2" t="s">
+        <v>2921</v>
+      </c>
+      <c r="M2" t="s">
+        <v>2922</v>
+      </c>
+      <c r="N2" t="s">
+        <v>2923</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
+      <c r="A3" s="11" t="s">
+        <v>2928</v>
+      </c>
+      <c r="B3" s="39" t="s">
+        <v>2930</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>3026</v>
+      </c>
+      <c r="E3" s="39" t="s">
+        <v>2937</v>
+      </c>
+      <c r="G3" s="11" t="s">
+        <v>1270</v>
+      </c>
+      <c r="H3" t="s">
+        <v>2938</v>
+      </c>
+      <c r="I3" s="40" t="s">
+        <v>2946</v>
+      </c>
+      <c r="J3" t="s">
+        <v>2950</v>
+      </c>
+      <c r="L3" t="s">
+        <v>2938</v>
+      </c>
+      <c r="M3" s="40" t="s">
+        <v>2946</v>
+      </c>
+      <c r="N3" t="s">
+        <v>2950</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
+      <c r="A4" s="11" t="s">
+        <v>2928</v>
+      </c>
+      <c r="B4" s="39" t="s">
+        <v>2931</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>3027</v>
+      </c>
+      <c r="E4" s="39" t="s">
+        <v>2937</v>
+      </c>
+      <c r="G4" s="11" t="s">
+        <v>1271</v>
+      </c>
+      <c r="H4" t="s">
+        <v>2939</v>
+      </c>
+      <c r="I4" s="40" t="s">
+        <v>2947</v>
+      </c>
+      <c r="J4" t="s">
+        <v>2951</v>
+      </c>
+      <c r="L4" t="s">
+        <v>2939</v>
+      </c>
+      <c r="M4" s="40" t="s">
+        <v>2947</v>
+      </c>
+      <c r="N4" t="s">
+        <v>2951</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
+      <c r="A5" s="12" t="s">
+        <v>2968</v>
+      </c>
+      <c r="B5" s="39" t="s">
+        <v>2969</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>3028</v>
+      </c>
+      <c r="E5" s="39" t="s">
+        <v>2937</v>
+      </c>
+      <c r="G5" s="11" t="s">
+        <v>1272</v>
+      </c>
+      <c r="H5" t="s">
+        <v>2940</v>
+      </c>
+      <c r="I5" s="40" t="s">
+        <v>2948</v>
+      </c>
+      <c r="J5" t="s">
+        <v>2952</v>
+      </c>
+      <c r="L5" t="s">
+        <v>2940</v>
+      </c>
+      <c r="M5" s="40" t="s">
+        <v>2948</v>
+      </c>
+      <c r="N5" t="s">
+        <v>2952</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
+      <c r="A6" s="12" t="s">
+        <v>2968</v>
+      </c>
+      <c r="B6" s="39" t="s">
+        <v>2970</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>3029</v>
+      </c>
+      <c r="G6" s="11" t="s">
+        <v>1273</v>
+      </c>
+      <c r="H6" t="s">
+        <v>2941</v>
+      </c>
+      <c r="I6" s="40" t="s">
+        <v>2949</v>
+      </c>
+      <c r="J6" t="s">
+        <v>2953</v>
+      </c>
+      <c r="L6" t="s">
+        <v>2941</v>
+      </c>
+      <c r="M6" s="40" t="s">
+        <v>2949</v>
+      </c>
+      <c r="N6" t="s">
+        <v>2953</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
+      <c r="A7" s="12" t="s">
+        <v>2968</v>
+      </c>
+      <c r="B7" s="39" t="s">
+        <v>2971</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>3030</v>
+      </c>
+      <c r="G7" s="11" t="s">
+        <v>1274</v>
+      </c>
+      <c r="H7" t="s">
+        <v>2942</v>
+      </c>
+      <c r="L7" t="s">
+        <v>2942</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
+      <c r="A8" s="11" t="s">
+        <v>3006</v>
+      </c>
+      <c r="B8" s="39" t="s">
+        <v>3007</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>3031</v>
+      </c>
+      <c r="G8" s="11" t="s">
+        <v>1275</v>
+      </c>
+      <c r="H8" t="s">
+        <v>2943</v>
+      </c>
+      <c r="L8" t="s">
+        <v>2943</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
+      <c r="A9" s="11" t="s">
+        <v>3006</v>
+      </c>
+      <c r="B9" s="39" t="s">
+        <v>3008</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>3032</v>
+      </c>
+      <c r="G9" s="11" t="s">
+        <v>1276</v>
+      </c>
+      <c r="H9" t="s">
+        <v>2944</v>
+      </c>
+      <c r="L9" t="s">
+        <v>2944</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
+      <c r="A10" s="11" t="s">
+        <v>3006</v>
+      </c>
+      <c r="B10" s="39" t="s">
+        <v>3009</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>3033</v>
+      </c>
+      <c r="G10" s="11" t="s">
+        <v>1277</v>
+      </c>
+      <c r="H10" t="s">
+        <v>2945</v>
+      </c>
+      <c r="L10" t="s">
+        <v>2945</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
+      <c r="C11" s="11" t="s">
+        <v>3034</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14">
+      <c r="C12" s="11" t="s">
+        <v>3035</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14">
+      <c r="C13" s="11" t="s">
+        <v>3036</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14">
+      <c r="C14" s="11" t="s">
+        <v>3037</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14">
+      <c r="C15" s="11" t="s">
+        <v>3038</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14">
+      <c r="C16" s="11" t="s">
+        <v>3039</v>
+      </c>
+    </row>
+    <row r="17" spans="3:3">
+      <c r="C17" s="11" t="s">
+        <v>3040</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/SDP/Filexel/Bapas.xlsx
+++ b/SDP/Filexel/Bapas.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\TRCH\Automationpython\SDP\Filexel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{581093D5-E2E8-44E0-8EC3-8830E812EDD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{546F8A6C-3F67-4989-8966-1A56B029161C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2655" yWindow="2655" windowWidth="21600" windowHeight="11505" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9795" yWindow="3075" windowWidth="21600" windowHeight="11505" firstSheet="2" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="KlienAPH" sheetId="1" r:id="rId1"/>
@@ -18,13 +18,15 @@
     <sheet name="Register Pembimbingan" sheetId="3" r:id="rId3"/>
     <sheet name="Register pengawasan" sheetId="4" r:id="rId4"/>
     <sheet name="Register Litmas" sheetId="5" r:id="rId5"/>
+    <sheet name="Penolakan" sheetId="6" r:id="rId6"/>
+    <sheet name="Verifikasi" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4395" uniqueCount="3042">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4443" uniqueCount="3077">
   <si>
     <t>Residivis</t>
   </si>
@@ -9150,13 +9152,118 @@
   </si>
   <si>
     <t>Jenislitmas</t>
+  </si>
+  <si>
+    <t>SURADI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ihsan </t>
+  </si>
+  <si>
+    <t>contoh</t>
+  </si>
+  <si>
+    <t>ajwar</t>
+  </si>
+  <si>
+    <t>asd</t>
+  </si>
+  <si>
+    <t>asdasdad</t>
+  </si>
+  <si>
+    <t>asdassd</t>
+  </si>
+  <si>
+    <t>Nomor Surat</t>
+  </si>
+  <si>
+    <t>Tanggal Surat Penolakan</t>
+  </si>
+  <si>
+    <t>Jenis Alasan Penolakan</t>
+  </si>
+  <si>
+    <t>Bukan Termasuk Anak</t>
+  </si>
+  <si>
+    <t>Penjamin Sudah Pindah</t>
+  </si>
+  <si>
+    <t>Penjamin tidak ditemukan</t>
+  </si>
+  <si>
+    <t>Penjamin tidak bersedia menjadi penjamin</t>
+  </si>
+  <si>
+    <t>Diluar wilayah kerja</t>
+  </si>
+  <si>
+    <t>Anak tidak bisa diajak berkomunikasi</t>
+  </si>
+  <si>
+    <t>Detil Alasan Penolakan</t>
+  </si>
+  <si>
+    <t>Detail Alasan 1</t>
+  </si>
+  <si>
+    <t>Detail Alasan 2</t>
+  </si>
+  <si>
+    <t>Detail Alasan 3</t>
+  </si>
+  <si>
+    <t>Detail Alasan 4</t>
+  </si>
+  <si>
+    <t>Detail Alasan 5</t>
+  </si>
+  <si>
+    <t>Detail Alasan 6</t>
+  </si>
+  <si>
+    <t>Cetak Berita Acara Penolakan</t>
+  </si>
+  <si>
+    <t>status verifikasi</t>
+  </si>
+  <si>
+    <t>deskripsi</t>
+  </si>
+  <si>
+    <t>Permohonan</t>
+  </si>
+  <si>
+    <t>Revisi</t>
+  </si>
+  <si>
+    <t>Disetujui</t>
+  </si>
+  <si>
+    <t>Ditolak</t>
+  </si>
+  <si>
+    <t>Pelaksanaan</t>
+  </si>
+  <si>
+    <t>Laporan Revisi Kasie</t>
+  </si>
+  <si>
+    <t>Laporan Disetujui Kasie</t>
+  </si>
+  <si>
+    <t>Laporan Revisi Kabapas</t>
+  </si>
+  <si>
+    <t>Laporan Disetujui Kabapas / selesai</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13">
+  <fonts count="16">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -9236,6 +9343,21 @@
       <sz val="11"/>
       <color rgb="FF303133"/>
       <name val="Roboto"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF606266"/>
+      <name val="Roboto"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Consolas"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="3">
@@ -9414,7 +9536,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -9522,6 +9644,11 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -72360,8 +72487,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BC4CEEA-1493-40D4-8B35-F1BB65148293}">
   <dimension ref="A1:I15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B10"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2:H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15"/>
@@ -72599,8 +72726,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26C3D5C4-3A84-4C62-A249-743CB01EFB38}">
   <dimension ref="A1:N17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="O10" sqref="O10"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2:H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -72616,7 +72743,8 @@
     <col min="9" max="9" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="26.7109375" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="16" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="12.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -72677,26 +72805,26 @@
       <c r="E2" s="39" t="s">
         <v>2937</v>
       </c>
-      <c r="G2" t="s">
-        <v>2920</v>
+      <c r="G2" s="11" t="s">
+        <v>1270</v>
       </c>
       <c r="H2" t="s">
-        <v>2921</v>
-      </c>
-      <c r="I2" t="s">
-        <v>2922</v>
+        <v>2938</v>
+      </c>
+      <c r="I2" s="40" t="s">
+        <v>2946</v>
       </c>
       <c r="J2" t="s">
-        <v>2923</v>
+        <v>2950</v>
       </c>
       <c r="L2" t="s">
-        <v>2921</v>
-      </c>
-      <c r="M2" t="s">
-        <v>2922</v>
+        <v>2938</v>
+      </c>
+      <c r="M2" s="40" t="s">
+        <v>2946</v>
       </c>
       <c r="N2" t="s">
-        <v>2923</v>
+        <v>2950</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -72713,25 +72841,25 @@
         <v>2937</v>
       </c>
       <c r="G3" s="11" t="s">
-        <v>1270</v>
+        <v>1271</v>
       </c>
       <c r="H3" t="s">
-        <v>2938</v>
+        <v>2939</v>
       </c>
       <c r="I3" s="40" t="s">
-        <v>2946</v>
+        <v>2947</v>
       </c>
       <c r="J3" t="s">
-        <v>2950</v>
+        <v>2951</v>
       </c>
       <c r="L3" t="s">
-        <v>2938</v>
+        <v>2939</v>
       </c>
       <c r="M3" s="40" t="s">
-        <v>2946</v>
+        <v>2947</v>
       </c>
       <c r="N3" t="s">
-        <v>2950</v>
+        <v>2951</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -72748,25 +72876,25 @@
         <v>2937</v>
       </c>
       <c r="G4" s="11" t="s">
-        <v>1271</v>
+        <v>1272</v>
       </c>
       <c r="H4" t="s">
-        <v>2939</v>
+        <v>2940</v>
       </c>
       <c r="I4" s="40" t="s">
-        <v>2947</v>
+        <v>2948</v>
       </c>
       <c r="J4" t="s">
-        <v>2951</v>
+        <v>2952</v>
       </c>
       <c r="L4" t="s">
-        <v>2939</v>
+        <v>2940</v>
       </c>
       <c r="M4" s="40" t="s">
-        <v>2947</v>
+        <v>2948</v>
       </c>
       <c r="N4" t="s">
-        <v>2951</v>
+        <v>2952</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -72783,25 +72911,25 @@
         <v>2937</v>
       </c>
       <c r="G5" s="11" t="s">
-        <v>1272</v>
+        <v>1273</v>
       </c>
       <c r="H5" t="s">
-        <v>2940</v>
+        <v>2941</v>
       </c>
       <c r="I5" s="40" t="s">
-        <v>2948</v>
+        <v>2949</v>
       </c>
       <c r="J5" t="s">
-        <v>2952</v>
+        <v>2953</v>
       </c>
       <c r="L5" t="s">
-        <v>2940</v>
+        <v>2941</v>
       </c>
       <c r="M5" s="40" t="s">
-        <v>2948</v>
+        <v>2949</v>
       </c>
       <c r="N5" t="s">
-        <v>2952</v>
+        <v>2953</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -72815,25 +72943,13 @@
         <v>3029</v>
       </c>
       <c r="G6" s="11" t="s">
-        <v>1273</v>
+        <v>1274</v>
       </c>
       <c r="H6" t="s">
-        <v>2941</v>
-      </c>
-      <c r="I6" s="40" t="s">
-        <v>2949</v>
-      </c>
-      <c r="J6" t="s">
-        <v>2953</v>
+        <v>2942</v>
       </c>
       <c r="L6" t="s">
-        <v>2941</v>
-      </c>
-      <c r="M6" s="40" t="s">
-        <v>2949</v>
-      </c>
-      <c r="N6" t="s">
-        <v>2953</v>
+        <v>2942</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -72847,13 +72963,13 @@
         <v>3030</v>
       </c>
       <c r="G7" s="11" t="s">
-        <v>1274</v>
+        <v>1275</v>
       </c>
       <c r="H7" t="s">
-        <v>2942</v>
+        <v>2943</v>
       </c>
       <c r="L7" t="s">
-        <v>2942</v>
+        <v>2943</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -72867,13 +72983,13 @@
         <v>3031</v>
       </c>
       <c r="G8" s="11" t="s">
-        <v>1275</v>
+        <v>1276</v>
       </c>
       <c r="H8" t="s">
-        <v>2943</v>
+        <v>2944</v>
       </c>
       <c r="L8" t="s">
-        <v>2943</v>
+        <v>2944</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -72887,13 +73003,13 @@
         <v>3032</v>
       </c>
       <c r="G9" s="11" t="s">
-        <v>1276</v>
+        <v>1277</v>
       </c>
       <c r="H9" t="s">
-        <v>2944</v>
+        <v>2945</v>
       </c>
       <c r="L9" t="s">
-        <v>2944</v>
+        <v>2945</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -72906,15 +73022,6 @@
       <c r="C10" s="11" t="s">
         <v>3033</v>
       </c>
-      <c r="G10" s="11" t="s">
-        <v>1277</v>
-      </c>
-      <c r="H10" t="s">
-        <v>2945</v>
-      </c>
-      <c r="L10" t="s">
-        <v>2945</v>
-      </c>
     </row>
     <row r="11" spans="1:14">
       <c r="C11" s="11" t="s">
@@ -72949,6 +73056,272 @@
     <row r="17" spans="3:3">
       <c r="C17" s="11" t="s">
         <v>3040</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E1246B0-7C61-4210-9C23-F84F35E5ECAE}">
+  <dimension ref="A1:F18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="36.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="29.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" t="s">
+        <v>2915</v>
+      </c>
+      <c r="B1" s="42" t="s">
+        <v>3049</v>
+      </c>
+      <c r="C1" s="42" t="s">
+        <v>3050</v>
+      </c>
+      <c r="D1" s="42" t="s">
+        <v>3051</v>
+      </c>
+      <c r="E1" s="42" t="s">
+        <v>3058</v>
+      </c>
+      <c r="F1" s="43" t="s">
+        <v>3065</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="41" t="s">
+        <v>3042</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2938</v>
+      </c>
+      <c r="C2" s="40" t="s">
+        <v>2946</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>3052</v>
+      </c>
+      <c r="E2" t="s">
+        <v>3059</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="41" t="s">
+        <v>3043</v>
+      </c>
+      <c r="B3" t="s">
+        <v>2939</v>
+      </c>
+      <c r="C3" s="40" t="s">
+        <v>2947</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>3053</v>
+      </c>
+      <c r="E3" t="s">
+        <v>3060</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="41" t="s">
+        <v>3044</v>
+      </c>
+      <c r="B4" t="s">
+        <v>2940</v>
+      </c>
+      <c r="C4" s="40" t="s">
+        <v>2948</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>1176</v>
+      </c>
+      <c r="E4" t="s">
+        <v>3061</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="41" t="s">
+        <v>3045</v>
+      </c>
+      <c r="B5" t="s">
+        <v>2941</v>
+      </c>
+      <c r="C5" s="40" t="s">
+        <v>2949</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>3054</v>
+      </c>
+      <c r="E5" t="s">
+        <v>3062</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="41" t="s">
+        <v>3046</v>
+      </c>
+      <c r="B6" t="s">
+        <v>2942</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>3055</v>
+      </c>
+      <c r="E6" t="s">
+        <v>3063</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="41" t="s">
+        <v>3047</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>3056</v>
+      </c>
+      <c r="E7" t="s">
+        <v>3064</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="41" t="s">
+        <v>3048</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>3057</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="41"/>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="41"/>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="41"/>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="42"/>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="42"/>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" s="42"/>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" s="42"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{576E1247-B67B-4199-88BD-3E6BE8BB5081}">
+  <dimension ref="D1:E10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="2" width="30.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="4:5">
+      <c r="D1" t="s">
+        <v>3066</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3067</v>
+      </c>
+    </row>
+    <row r="2" spans="4:5">
+      <c r="D2" s="11" t="s">
+        <v>3070</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>3070</v>
+      </c>
+    </row>
+    <row r="3" spans="4:5">
+      <c r="D3" s="11" t="s">
+        <v>3069</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>3069</v>
+      </c>
+    </row>
+    <row r="4" spans="4:5">
+      <c r="D4" s="11" t="s">
+        <v>3068</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>3068</v>
+      </c>
+    </row>
+    <row r="5" spans="4:5">
+      <c r="D5" s="11" t="s">
+        <v>3071</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>3071</v>
+      </c>
+    </row>
+    <row r="6" spans="4:5">
+      <c r="D6" s="11" t="s">
+        <v>3072</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>3072</v>
+      </c>
+    </row>
+    <row r="7" spans="4:5">
+      <c r="D7" s="11" t="s">
+        <v>3073</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>3073</v>
+      </c>
+    </row>
+    <row r="8" spans="4:5">
+      <c r="D8" s="11" t="s">
+        <v>3074</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>3074</v>
+      </c>
+    </row>
+    <row r="9" spans="4:5">
+      <c r="D9" s="11" t="s">
+        <v>3075</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>3075</v>
+      </c>
+    </row>
+    <row r="10" spans="4:5">
+      <c r="D10" s="11" t="s">
+        <v>3076</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>3076</v>
       </c>
     </row>
   </sheetData>
